--- a/Code/Results/Cases/Case_3_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.044887171669302</v>
+        <v>0.5715419746630062</v>
       </c>
       <c r="C2">
-        <v>0.1279691498321114</v>
+        <v>0.114946053896702</v>
       </c>
       <c r="D2">
-        <v>0.05778444059070864</v>
+        <v>0.0527335108562923</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7553810518245356</v>
+        <v>1.152677889745412</v>
       </c>
       <c r="G2">
-        <v>0.67176478835556</v>
+        <v>1.019601378747737</v>
       </c>
       <c r="H2">
-        <v>0.4930131214087794</v>
+        <v>1.034541761508748</v>
       </c>
       <c r="I2">
-        <v>0.5365822212160509</v>
+        <v>1.051614530899876</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9694427052191941</v>
+        <v>0.3551172859349379</v>
       </c>
       <c r="L2">
-        <v>0.2196926958618661</v>
+        <v>0.2885973427854225</v>
       </c>
       <c r="M2">
-        <v>0.2467935186096462</v>
+        <v>0.1927390872979018</v>
       </c>
       <c r="N2">
-        <v>1.019716653503135</v>
+        <v>2.101940947907526</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9086853080112576</v>
+        <v>0.5352276124321804</v>
       </c>
       <c r="C3">
-        <v>0.1184146212601718</v>
+        <v>0.1116367243003751</v>
       </c>
       <c r="D3">
-        <v>0.0545157848086788</v>
+        <v>0.05145903917820505</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7158345516873652</v>
+        <v>1.14961991734846</v>
       </c>
       <c r="G3">
-        <v>0.6414213196631096</v>
+        <v>1.018297715806369</v>
       </c>
       <c r="H3">
-        <v>0.4854970561785734</v>
+        <v>1.038286947416836</v>
       </c>
       <c r="I3">
-        <v>0.5294201454879044</v>
+        <v>1.055839669135494</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8408606043478528</v>
+        <v>0.3185022999422245</v>
       </c>
       <c r="L3">
-        <v>0.2006289701106923</v>
+        <v>0.285204863958235</v>
       </c>
       <c r="M3">
-        <v>0.2169130226683187</v>
+        <v>0.1854537833095442</v>
       </c>
       <c r="N3">
-        <v>1.064748754420556</v>
+        <v>2.121215455152647</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8255539762806166</v>
+        <v>0.5131681245110542</v>
       </c>
       <c r="C4">
-        <v>0.1125411730820645</v>
+        <v>0.1095733237547591</v>
       </c>
       <c r="D4">
-        <v>0.05249492852157545</v>
+        <v>0.05066487978112022</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6928251465485715</v>
+        <v>1.148355659305601</v>
       </c>
       <c r="G4">
-        <v>0.6240404275089304</v>
+        <v>1.018066036729778</v>
       </c>
       <c r="H4">
-        <v>0.4816270733696371</v>
+        <v>1.04100366414454</v>
       </c>
       <c r="I4">
-        <v>0.5259157569055475</v>
+        <v>1.0588995300234</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7622359819361577</v>
+        <v>0.2961017084816433</v>
       </c>
       <c r="L4">
-        <v>0.1891815589133898</v>
+        <v>0.2832640314981276</v>
       </c>
       <c r="M4">
-        <v>0.1987475231976568</v>
+        <v>0.1810748712291819</v>
       </c>
       <c r="N4">
-        <v>1.093668598352739</v>
+        <v>2.133681894355242</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7917856392260489</v>
+        <v>0.5042389341452349</v>
       </c>
       <c r="C5">
-        <v>0.1101446303344886</v>
+        <v>0.1087245520908766</v>
       </c>
       <c r="D5">
-        <v>0.05166781639409734</v>
+        <v>0.0503383420126049</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.683751524546075</v>
+        <v>1.1479947510811</v>
       </c>
       <c r="G5">
-        <v>0.6172551059077023</v>
+        <v>1.018114621816494</v>
       </c>
       <c r="H5">
-        <v>0.480229784070616</v>
+        <v>1.042215733712652</v>
       </c>
       <c r="I5">
-        <v>0.5247029402239356</v>
+        <v>1.060263577577402</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7302618595712005</v>
+        <v>0.2869940166240355</v>
       </c>
       <c r="L5">
-        <v>0.1845774408054908</v>
+        <v>0.2825089420122566</v>
       </c>
       <c r="M5">
-        <v>0.1913861784746516</v>
+        <v>0.1793142401083649</v>
       </c>
       <c r="N5">
-        <v>1.105765243407149</v>
+        <v>2.138920936537886</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7861845069567437</v>
+        <v>0.5027599003184946</v>
       </c>
       <c r="C6">
-        <v>0.1097464639814518</v>
+        <v>0.1085831356539089</v>
       </c>
       <c r="D6">
-        <v>0.05153025491886964</v>
+        <v>0.05028394520080681</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6822626689471605</v>
+        <v>1.147944142768665</v>
       </c>
       <c r="G6">
-        <v>0.6161459030681158</v>
+        <v>1.018131325186829</v>
       </c>
       <c r="H6">
-        <v>0.4800084087991223</v>
+        <v>1.042423340401612</v>
       </c>
       <c r="I6">
-        <v>0.5245142892510621</v>
+        <v>1.060497152397389</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7249561259957602</v>
+        <v>0.2854829529700567</v>
       </c>
       <c r="L6">
-        <v>0.18381648833833</v>
+        <v>0.2823857251328903</v>
       </c>
       <c r="M6">
-        <v>0.1901662014472301</v>
+        <v>0.1790233297350987</v>
       </c>
       <c r="N6">
-        <v>1.107792480900986</v>
+        <v>2.139800470491494</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8250981473241836</v>
+        <v>0.513047457842589</v>
       </c>
       <c r="C7">
-        <v>0.1125088665686675</v>
+        <v>0.1095619089985362</v>
       </c>
       <c r="D7">
-        <v>0.05248378849387336</v>
+        <v>0.05066048774962439</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6927015719775085</v>
+        <v>1.148350167195943</v>
       </c>
       <c r="G7">
-        <v>0.6239477351954719</v>
+        <v>1.018066113016047</v>
       </c>
       <c r="H7">
-        <v>0.4816075108941078</v>
+        <v>1.041019585341502</v>
       </c>
       <c r="I7">
-        <v>0.5258985408981118</v>
+        <v>1.058917451730565</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7618045205072974</v>
+        <v>0.2959787945962375</v>
       </c>
       <c r="L7">
-        <v>0.1891192251907299</v>
+        <v>0.283253702991594</v>
       </c>
       <c r="M7">
-        <v>0.1986480840963267</v>
+        <v>0.1810510301989439</v>
       </c>
       <c r="N7">
-        <v>1.093830486350686</v>
+        <v>2.133751906676508</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9978112378514084</v>
+        <v>0.5589717188142345</v>
       </c>
       <c r="C8">
-        <v>0.1246753627282118</v>
+        <v>0.1138115203462178</v>
       </c>
       <c r="D8">
-        <v>0.05666022443926977</v>
+        <v>0.05229649385659485</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7414708183876613</v>
+        <v>1.15149622936476</v>
       </c>
       <c r="G8">
-        <v>0.6610324970757802</v>
+        <v>1.019033806892793</v>
       </c>
       <c r="H8">
-        <v>0.490262303914875</v>
+        <v>1.035746571990032</v>
       </c>
       <c r="I8">
-        <v>0.5339215910603272</v>
+        <v>1.052974749047543</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9250302946533395</v>
+        <v>0.3424757768959807</v>
       </c>
       <c r="L8">
-        <v>0.2130635251356665</v>
+        <v>0.2873981487747699</v>
       </c>
       <c r="M8">
-        <v>0.2364504199497262</v>
+        <v>0.1902076011206546</v>
       </c>
       <c r="N8">
-        <v>1.034975352686946</v>
+        <v>2.108455662085351</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.34125861694298</v>
+        <v>0.6508995031773566</v>
       </c>
       <c r="C9">
-        <v>0.1485437145788637</v>
+        <v>0.1218960973054948</v>
       </c>
       <c r="D9">
-        <v>0.06474547803635744</v>
+        <v>0.05541199685193732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8480196407745098</v>
+        <v>1.162531743675686</v>
       </c>
       <c r="G9">
-        <v>0.7444812325460788</v>
+        <v>1.025447198962567</v>
       </c>
       <c r="H9">
-        <v>0.5135070481452715</v>
+        <v>1.0287128801763</v>
       </c>
       <c r="I9">
-        <v>0.5571883196140561</v>
+        <v>1.045014041999913</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.248465688102016</v>
+        <v>0.4342906256321442</v>
       </c>
       <c r="L9">
-        <v>0.2622578748436837</v>
+        <v>0.2966511855519656</v>
       </c>
       <c r="M9">
-        <v>0.3122291217343331</v>
+        <v>0.2089085003230835</v>
       </c>
       <c r="N9">
-        <v>0.9300042674095259</v>
+        <v>2.063862604341644</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.597714285518379</v>
+        <v>0.7195657528351376</v>
       </c>
       <c r="C10">
-        <v>0.1661842931826385</v>
+        <v>0.1276855559148373</v>
       </c>
       <c r="D10">
-        <v>0.0706306104505785</v>
+        <v>0.05764405259679251</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9341670207713264</v>
+        <v>1.17360808165003</v>
       </c>
       <c r="G10">
-        <v>0.813526564261025</v>
+        <v>1.032918118447895</v>
       </c>
       <c r="H10">
-        <v>0.5349465409911289</v>
+        <v>1.02555749382978</v>
       </c>
       <c r="I10">
-        <v>0.5795364644804479</v>
+        <v>1.04141556215103</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.48929574930969</v>
+        <v>0.5021277950430374</v>
       </c>
       <c r="L10">
-        <v>0.3000555282448829</v>
+        <v>0.3041338423120408</v>
       </c>
       <c r="M10">
-        <v>0.369224164412735</v>
+        <v>0.2230993731717348</v>
       </c>
       <c r="N10">
-        <v>0.8597866170317339</v>
+        <v>2.034154513700287</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.715571789133435</v>
+        <v>0.7510461131251702</v>
       </c>
       <c r="C11">
-        <v>0.1742561131218281</v>
+        <v>0.1302870355590073</v>
       </c>
       <c r="D11">
-        <v>0.07329807859056103</v>
+        <v>0.05864704441080448</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9753554156523023</v>
+        <v>1.179292211448399</v>
       </c>
       <c r="G11">
-        <v>0.8469028688751052</v>
+        <v>1.036917382022139</v>
       </c>
       <c r="H11">
-        <v>0.5457756284831277</v>
+        <v>1.024558291377105</v>
       </c>
       <c r="I11">
-        <v>0.5910019662230823</v>
+        <v>1.040267001787157</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.599829411781599</v>
+        <v>0.5330705122367476</v>
       </c>
       <c r="L11">
-        <v>0.3176787875104594</v>
+        <v>0.3076861934732023</v>
       </c>
       <c r="M11">
-        <v>0.3955148215314139</v>
+        <v>0.229652678132453</v>
       </c>
       <c r="N11">
-        <v>0.8294706966784631</v>
+        <v>2.0213024620918</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.760399029682816</v>
+        <v>0.763001586552349</v>
       </c>
       <c r="C12">
-        <v>0.1773216214658504</v>
+        <v>0.1312675371417384</v>
       </c>
       <c r="D12">
-        <v>0.07430696346015253</v>
+        <v>0.0590250602820106</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9912658404128933</v>
+        <v>1.181537455098663</v>
       </c>
       <c r="G12">
-        <v>0.8598501652635804</v>
+        <v>1.038518255956774</v>
       </c>
       <c r="H12">
-        <v>0.5500426395249747</v>
+        <v>1.024242577201065</v>
       </c>
       <c r="I12">
-        <v>0.595544661237362</v>
+        <v>1.03990228011132</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.641851031348068</v>
+        <v>0.5447994512236392</v>
       </c>
       <c r="L12">
-        <v>0.3244200331097318</v>
+        <v>0.3090526727315819</v>
       </c>
       <c r="M12">
-        <v>0.4055293179354038</v>
+        <v>0.232148230330111</v>
       </c>
       <c r="N12">
-        <v>0.8182365112002365</v>
+        <v>2.01653098208196</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.750735487816655</v>
+        <v>0.7604252331250052</v>
       </c>
       <c r="C13">
-        <v>0.1766609784471882</v>
+        <v>0.1310565740935914</v>
       </c>
       <c r="D13">
-        <v>0.07408973380990602</v>
+        <v>0.05894372788672086</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.987824882564226</v>
+        <v>1.181049775419652</v>
       </c>
       <c r="G13">
-        <v>0.8570475896296728</v>
+        <v>1.038169633749632</v>
       </c>
       <c r="H13">
-        <v>0.5491160746951209</v>
+        <v>1.024307785975125</v>
       </c>
       <c r="I13">
-        <v>0.594557136739553</v>
+        <v>1.039977706996694</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.632793184209476</v>
+        <v>0.5422729041460173</v>
       </c>
       <c r="L13">
-        <v>0.322965073808831</v>
+        <v>0.308757431556316</v>
       </c>
       <c r="M13">
-        <v>0.4033697925751554</v>
+        <v>0.2316101494325764</v>
       </c>
       <c r="N13">
-        <v>0.820644863009182</v>
+        <v>2.017554365395057</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.719255649553475</v>
+        <v>0.7520290076971605</v>
       </c>
       <c r="C14">
-        <v>0.1745081234502379</v>
+        <v>0.1303677946271904</v>
       </c>
       <c r="D14">
-        <v>0.07338110374050899</v>
+        <v>0.05867818007186543</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9766579431810527</v>
+        <v>1.179475069563381</v>
       </c>
       <c r="G14">
-        <v>0.8479617166566129</v>
+        <v>1.037047354168664</v>
       </c>
       <c r="H14">
-        <v>0.5461232766648436</v>
+        <v>1.024531061897235</v>
       </c>
       <c r="I14">
-        <v>0.5913715843200293</v>
+        <v>1.040235588845647</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.603283105457621</v>
+        <v>0.5340352286622476</v>
       </c>
       <c r="L14">
-        <v>0.3182320010197088</v>
+        <v>0.3077981884225949</v>
       </c>
       <c r="M14">
-        <v>0.3963375026063432</v>
+        <v>0.2298577095885364</v>
       </c>
       <c r="N14">
-        <v>0.8285414559638333</v>
+        <v>2.020907998911802</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.699999801904625</v>
+        <v>0.7468905608612602</v>
       </c>
       <c r="C15">
-        <v>0.1731906608506364</v>
+        <v>0.12994529548223</v>
       </c>
       <c r="D15">
-        <v>0.07294689275364163</v>
+        <v>0.05851529011613366</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9698594641862286</v>
+        <v>1.178522599545971</v>
       </c>
       <c r="G15">
-        <v>0.842437311771377</v>
+        <v>1.036371184255799</v>
       </c>
       <c r="H15">
-        <v>0.5443121114526548</v>
+        <v>1.024675983451232</v>
       </c>
       <c r="I15">
-        <v>0.5894469493057244</v>
+        <v>1.040402692199024</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.585229556281917</v>
+        <v>0.528990914770759</v>
       </c>
       <c r="L15">
-        <v>0.3153418597904647</v>
+        <v>0.3072133937429982</v>
       </c>
       <c r="M15">
-        <v>0.3920378813744065</v>
+        <v>0.2287861041414914</v>
       </c>
       <c r="N15">
-        <v>0.8334107257133958</v>
+        <v>2.022974611084098</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.590038185163763</v>
+        <v>0.717513298733536</v>
       </c>
       <c r="C16">
-        <v>0.1656579044563102</v>
+        <v>0.1275148960476145</v>
       </c>
       <c r="D16">
-        <v>0.07045610388339441</v>
+        <v>0.05757825429988372</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9315176560400857</v>
+        <v>1.17324959611544</v>
       </c>
       <c r="G16">
-        <v>0.8113870696843151</v>
+        <v>1.032668849933472</v>
       </c>
       <c r="H16">
-        <v>0.5342614551121727</v>
+        <v>1.025631566114953</v>
       </c>
       <c r="I16">
-        <v>0.5788144953799659</v>
+        <v>1.041500449618709</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.482093835539871</v>
+        <v>0.500107259481581</v>
       </c>
       <c r="L16">
-        <v>0.2989129429032999</v>
+        <v>0.3039046693922387</v>
       </c>
       <c r="M16">
-        <v>0.3675138682528996</v>
+        <v>0.2226730582809822</v>
       </c>
       <c r="N16">
-        <v>0.8618015606203855</v>
+        <v>2.03500775908169</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.522903722333098</v>
+        <v>0.6995533680427002</v>
       </c>
       <c r="C17">
-        <v>0.1610503019149263</v>
+        <v>0.126015687249847</v>
       </c>
       <c r="D17">
-        <v>0.06892571479294674</v>
+        <v>0.05700023135200638</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9085260593774507</v>
+        <v>1.170180074533036</v>
       </c>
       <c r="G17">
-        <v>0.7928601878321757</v>
+        <v>1.030551484720149</v>
       </c>
       <c r="H17">
-        <v>0.5283792638381328</v>
+        <v>1.026329461228897</v>
       </c>
       <c r="I17">
-        <v>0.5726343267157148</v>
+        <v>1.042298967126072</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.419090742593539</v>
+        <v>0.4824091332403952</v>
       </c>
       <c r="L17">
-        <v>0.2889483436806586</v>
+        <v>0.3019128493705523</v>
       </c>
       <c r="M17">
-        <v>0.3525667490058382</v>
+        <v>0.218947877309887</v>
       </c>
       <c r="N17">
-        <v>0.8796431950933261</v>
+        <v>2.042559390280417</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.484400561718445</v>
+        <v>0.6892462630169405</v>
       </c>
       <c r="C18">
-        <v>0.1584044202509318</v>
+        <v>0.1251503533735558</v>
       </c>
       <c r="D18">
-        <v>0.06804455079593197</v>
+        <v>0.05666660332138207</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8954884567245074</v>
+        <v>1.168475321201399</v>
       </c>
       <c r="G18">
-        <v>0.7823875451293816</v>
+        <v>1.02939016991688</v>
       </c>
       <c r="H18">
-        <v>0.5250965371173208</v>
+        <v>1.026771932819983</v>
       </c>
       <c r="I18">
-        <v>0.5692010409151962</v>
+        <v>1.042804225480431</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.382943613042926</v>
+        <v>0.4722374968988277</v>
       </c>
       <c r="L18">
-        <v>0.2832569566425889</v>
+        <v>0.3007811842632009</v>
       </c>
       <c r="M18">
-        <v>0.3440033398988689</v>
+        <v>0.216814464058892</v>
       </c>
       <c r="N18">
-        <v>0.8900575562313691</v>
+        <v>2.04696522374735</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.471382341062309</v>
+        <v>0.6857604152193062</v>
       </c>
       <c r="C19">
-        <v>0.1575092451683702</v>
+        <v>0.1248568458879049</v>
       </c>
       <c r="D19">
-        <v>0.0677460400786174</v>
+        <v>0.05655344304992838</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8911054353317525</v>
+        <v>1.167908556461384</v>
       </c>
       <c r="G19">
-        <v>0.7788724621156149</v>
+        <v>1.029006677278161</v>
       </c>
       <c r="H19">
-        <v>0.5240019952463939</v>
+        <v>1.026928800251156</v>
       </c>
       <c r="I19">
-        <v>0.5680590230393534</v>
+        <v>1.042983193636445</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.370719667147142</v>
+        <v>0.4687949163706548</v>
       </c>
       <c r="L19">
-        <v>0.2813366418982923</v>
+        <v>0.3004004245004523</v>
       </c>
       <c r="M19">
-        <v>0.3411095263312589</v>
+        <v>0.2160937124558444</v>
       </c>
       <c r="N19">
-        <v>0.8936094929390244</v>
+        <v>2.048467667139796</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.530038654489431</v>
+        <v>0.7014628594582746</v>
       </c>
       <c r="C20">
-        <v>0.1615403303336223</v>
+        <v>0.1261755940055451</v>
       </c>
       <c r="D20">
-        <v>0.06908872184592951</v>
+        <v>0.05706188351326347</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9109540657406967</v>
+        <v>1.170500542700992</v>
       </c>
       <c r="G20">
-        <v>0.7948132324468133</v>
+        <v>1.030771029995776</v>
       </c>
       <c r="H20">
-        <v>0.5289949454261063</v>
+        <v>1.026250919920386</v>
       </c>
       <c r="I20">
-        <v>0.5732795543466835</v>
+        <v>1.042209205760834</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.425787985166778</v>
+        <v>0.4842923184021402</v>
       </c>
       <c r="L20">
-        <v>0.2900049115077081</v>
+        <v>0.3021234359170109</v>
       </c>
       <c r="M20">
-        <v>0.3541543534823859</v>
+        <v>0.2193434765148368</v>
       </c>
       <c r="N20">
-        <v>0.8777280740606557</v>
+        <v>2.041749054284953</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.728496478401638</v>
+        <v>0.7544942491412314</v>
       </c>
       <c r="C21">
-        <v>0.1751402101748312</v>
+        <v>0.1305702312661055</v>
       </c>
       <c r="D21">
-        <v>0.07358927746901145</v>
+        <v>0.05875622674640368</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9799292272145124</v>
+        <v>1.179935080852459</v>
       </c>
       <c r="G21">
-        <v>0.850621874616607</v>
+        <v>1.037374648471058</v>
       </c>
       <c r="H21">
-        <v>0.5469977253405744</v>
+        <v>1.024463780211548</v>
       </c>
       <c r="I21">
-        <v>0.5923016865418518</v>
+        <v>1.040157937278572</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.61194625325416</v>
+        <v>0.5364545216528427</v>
       </c>
       <c r="L21">
-        <v>0.319620331756937</v>
+        <v>0.3080793643538158</v>
       </c>
       <c r="M21">
-        <v>0.3984014063650392</v>
+        <v>0.2303720656885986</v>
       </c>
       <c r="N21">
-        <v>0.8262152650177512</v>
+        <v>2.019920368083476</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.859362530037856</v>
+        <v>0.7893544432070883</v>
       </c>
       <c r="C22">
-        <v>0.1840814290252411</v>
+        <v>0.1334154403783856</v>
       </c>
       <c r="D22">
-        <v>0.0765235846542538</v>
+        <v>0.0598531063485197</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.026847821175664</v>
+        <v>1.186641917837093</v>
       </c>
       <c r="G22">
-        <v>0.8889069679776185</v>
+        <v>1.042194358306546</v>
       </c>
       <c r="H22">
-        <v>0.5597387174448869</v>
+        <v>1.023660995165713</v>
       </c>
       <c r="I22">
-        <v>0.6059124102945077</v>
+        <v>1.039226562518493</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.734585299878404</v>
+        <v>0.570612999963771</v>
       </c>
       <c r="L22">
-        <v>0.3393734356191942</v>
+        <v>0.3120959187369579</v>
       </c>
       <c r="M22">
-        <v>0.4276655088291221</v>
+        <v>0.2376611936446125</v>
       </c>
       <c r="N22">
-        <v>0.7939875307928048</v>
+        <v>2.006209653227288</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.789401602508661</v>
+        <v>0.7707306665348881</v>
       </c>
       <c r="C23">
-        <v>0.1793037406922622</v>
+        <v>0.1318993623859228</v>
       </c>
       <c r="D23">
-        <v>0.07495807689330292</v>
+        <v>0.05926864413976318</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.001629175790526</v>
+        <v>1.183012876782357</v>
       </c>
       <c r="G23">
-        <v>0.8682988544907602</v>
+        <v>1.039575865500851</v>
       </c>
       <c r="H23">
-        <v>0.5528453492836292</v>
+        <v>1.024056060102339</v>
       </c>
       <c r="I23">
-        <v>0.5985353184314377</v>
+        <v>1.039686214734417</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.669032949997188</v>
+        <v>0.5523759260026395</v>
       </c>
       <c r="L23">
-        <v>0.328792338338701</v>
+        <v>0.309940883050885</v>
       </c>
       <c r="M23">
-        <v>0.412012747365047</v>
+        <v>0.2337634444778161</v>
       </c>
       <c r="N23">
-        <v>0.8110522514130523</v>
+        <v>2.013476457792699</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.526812662836221</v>
+        <v>0.7005995213541496</v>
       </c>
       <c r="C24">
-        <v>0.1613187790178898</v>
+        <v>0.1261033108123257</v>
       </c>
       <c r="D24">
-        <v>0.06901503049041224</v>
+        <v>0.05703401466588076</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9098558035449003</v>
+        <v>1.170355472281116</v>
       </c>
       <c r="G24">
-        <v>0.7939297062472832</v>
+        <v>1.030671599184828</v>
       </c>
       <c r="H24">
-        <v>0.5287162882052598</v>
+        <v>1.026286299970465</v>
       </c>
       <c r="I24">
-        <v>0.5729874749171344</v>
+        <v>1.042249643022593</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.422759932525366</v>
+        <v>0.4834409202342442</v>
       </c>
       <c r="L24">
-        <v>0.2895271211699395</v>
+        <v>0.3020281878125246</v>
       </c>
       <c r="M24">
-        <v>0.3534365048908228</v>
+        <v>0.2191646004309433</v>
       </c>
       <c r="N24">
-        <v>0.8785934122505985</v>
+        <v>2.042115206896643</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.247716184838765</v>
+        <v>0.625831738662697</v>
       </c>
       <c r="C25">
-        <v>0.142075926819146</v>
+        <v>0.1197355004622835</v>
       </c>
       <c r="D25">
-        <v>0.06256855102392933</v>
+        <v>0.05457913552403681</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8179066576163905</v>
+        <v>1.159025183985577</v>
       </c>
       <c r="G25">
-        <v>0.720639144672063</v>
+        <v>1.023228136179895</v>
       </c>
       <c r="H25">
-        <v>0.5064938883544698</v>
+        <v>1.030262049973004</v>
       </c>
       <c r="I25">
-        <v>0.5500218912801174</v>
+        <v>1.046772382684658</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.160494223657707</v>
+        <v>0.4093849714951716</v>
       </c>
       <c r="L25">
-        <v>0.2486809775540166</v>
+        <v>0.2940276623286024</v>
       </c>
       <c r="M25">
-        <v>0.2915211714032964</v>
+        <v>0.2037699531850805</v>
       </c>
       <c r="N25">
-        <v>0.957230395988482</v>
+        <v>2.075389720338695</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5715419746630062</v>
+        <v>1.044887171669586</v>
       </c>
       <c r="C2">
-        <v>0.114946053896702</v>
+        <v>0.1279691498327153</v>
       </c>
       <c r="D2">
-        <v>0.0527335108562923</v>
+        <v>0.05778444059070864</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.152677889745412</v>
+        <v>0.7553810518245285</v>
       </c>
       <c r="G2">
-        <v>1.019601378747737</v>
+        <v>0.6717647883556452</v>
       </c>
       <c r="H2">
-        <v>1.034541761508748</v>
+        <v>0.4930131214088931</v>
       </c>
       <c r="I2">
-        <v>1.051614530899876</v>
+        <v>0.536582221216058</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3551172859349379</v>
+        <v>0.9694427052192793</v>
       </c>
       <c r="L2">
-        <v>0.2885973427854225</v>
+        <v>0.2196926958619088</v>
       </c>
       <c r="M2">
-        <v>0.1927390872979018</v>
+        <v>0.2467935186096426</v>
       </c>
       <c r="N2">
-        <v>2.101940947907526</v>
+        <v>1.019716653503135</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5352276124321804</v>
+        <v>0.908685308011087</v>
       </c>
       <c r="C3">
-        <v>0.1116367243003751</v>
+        <v>0.1184146212601718</v>
       </c>
       <c r="D3">
-        <v>0.05145903917820505</v>
+        <v>0.05451578480862906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.14961991734846</v>
+        <v>0.7158345516873652</v>
       </c>
       <c r="G3">
-        <v>1.018297715806369</v>
+        <v>0.6414213196630953</v>
       </c>
       <c r="H3">
-        <v>1.038286947416836</v>
+        <v>0.4854970561785734</v>
       </c>
       <c r="I3">
-        <v>1.055839669135494</v>
+        <v>0.5294201454879328</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3185022999422245</v>
+        <v>0.8408606043479097</v>
       </c>
       <c r="L3">
-        <v>0.285204863958235</v>
+        <v>0.2006289701107349</v>
       </c>
       <c r="M3">
-        <v>0.1854537833095442</v>
+        <v>0.2169130226683116</v>
       </c>
       <c r="N3">
-        <v>2.121215455152647</v>
+        <v>1.064748754420574</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5131681245110542</v>
+        <v>0.8255539762806734</v>
       </c>
       <c r="C4">
-        <v>0.1095733237547591</v>
+        <v>0.1125411730820574</v>
       </c>
       <c r="D4">
-        <v>0.05066487978112022</v>
+        <v>0.05249492852164295</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.148355659305601</v>
+        <v>0.6928251465485715</v>
       </c>
       <c r="G4">
-        <v>1.018066036729778</v>
+        <v>0.6240404275089446</v>
       </c>
       <c r="H4">
-        <v>1.04100366414454</v>
+        <v>0.4816270733696371</v>
       </c>
       <c r="I4">
-        <v>1.0588995300234</v>
+        <v>0.5259157569055297</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2961017084816433</v>
+        <v>0.7622359819362146</v>
       </c>
       <c r="L4">
-        <v>0.2832640314981276</v>
+        <v>0.1891815589133685</v>
       </c>
       <c r="M4">
-        <v>0.1810748712291819</v>
+        <v>0.1987475231976426</v>
       </c>
       <c r="N4">
-        <v>2.133681894355242</v>
+        <v>1.093668598352739</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5042389341452349</v>
+        <v>0.7917856392261911</v>
       </c>
       <c r="C5">
-        <v>0.1087245520908766</v>
+        <v>0.1101446303344034</v>
       </c>
       <c r="D5">
-        <v>0.0503383420126049</v>
+        <v>0.05166781639404405</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.1479947510811</v>
+        <v>0.683751524546075</v>
       </c>
       <c r="G5">
-        <v>1.018114621816494</v>
+        <v>0.6172551059077165</v>
       </c>
       <c r="H5">
-        <v>1.042215733712652</v>
+        <v>0.4802297840707297</v>
       </c>
       <c r="I5">
-        <v>1.060263577577402</v>
+        <v>0.5247029402239427</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2869940166240355</v>
+        <v>0.7302618595712573</v>
       </c>
       <c r="L5">
-        <v>0.2825089420122566</v>
+        <v>0.1845774408055476</v>
       </c>
       <c r="M5">
-        <v>0.1793142401083649</v>
+        <v>0.1913861784746409</v>
       </c>
       <c r="N5">
-        <v>2.138920936537886</v>
+        <v>1.105765243407106</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5027599003184946</v>
+        <v>0.7861845069567153</v>
       </c>
       <c r="C6">
-        <v>0.1085831356539089</v>
+        <v>0.1097464639816863</v>
       </c>
       <c r="D6">
-        <v>0.05028394520080681</v>
+        <v>0.05153025491874175</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.147944142768665</v>
+        <v>0.6822626689471818</v>
       </c>
       <c r="G6">
-        <v>1.018131325186829</v>
+        <v>0.6161459030680732</v>
       </c>
       <c r="H6">
-        <v>1.042423340401612</v>
+        <v>0.480008408799236</v>
       </c>
       <c r="I6">
-        <v>1.060497152397389</v>
+        <v>0.5245142892510657</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2854829529700567</v>
+        <v>0.7249561259957318</v>
       </c>
       <c r="L6">
-        <v>0.2823857251328903</v>
+        <v>0.1838164883383158</v>
       </c>
       <c r="M6">
-        <v>0.1790233297350987</v>
+        <v>0.1901662014472301</v>
       </c>
       <c r="N6">
-        <v>2.139800470491494</v>
+        <v>1.107792480900983</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.513047457842589</v>
+        <v>0.8250981473241552</v>
       </c>
       <c r="C7">
-        <v>0.1095619089985362</v>
+        <v>0.1125088665687599</v>
       </c>
       <c r="D7">
-        <v>0.05066048774962439</v>
+        <v>0.0524837884939906</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.148350167195943</v>
+        <v>0.6927015719775014</v>
       </c>
       <c r="G7">
-        <v>1.018066113016047</v>
+        <v>0.6239477351955145</v>
       </c>
       <c r="H7">
-        <v>1.041019585341502</v>
+        <v>0.4816075108941078</v>
       </c>
       <c r="I7">
-        <v>1.058917451730565</v>
+        <v>0.5258985408981154</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2959787945962375</v>
+        <v>0.7618045205073258</v>
       </c>
       <c r="L7">
-        <v>0.283253702991594</v>
+        <v>0.1891192251907299</v>
       </c>
       <c r="M7">
-        <v>0.1810510301989439</v>
+        <v>0.1986480840963232</v>
       </c>
       <c r="N7">
-        <v>2.133751906676508</v>
+        <v>1.093830486350679</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5589717188142345</v>
+        <v>0.9978112378513515</v>
       </c>
       <c r="C8">
-        <v>0.1138115203462178</v>
+        <v>0.1246753627284676</v>
       </c>
       <c r="D8">
-        <v>0.05229649385659485</v>
+        <v>0.05666022443938346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.15149622936476</v>
+        <v>0.7414708183876542</v>
       </c>
       <c r="G8">
-        <v>1.019033806892793</v>
+        <v>0.6610324970757375</v>
       </c>
       <c r="H8">
-        <v>1.035746571990032</v>
+        <v>0.490262303914875</v>
       </c>
       <c r="I8">
-        <v>1.052974749047543</v>
+        <v>0.5339215910603485</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3424757768959807</v>
+        <v>0.9250302946533964</v>
       </c>
       <c r="L8">
-        <v>0.2873981487747699</v>
+        <v>0.2130635251356026</v>
       </c>
       <c r="M8">
-        <v>0.1902076011206546</v>
+        <v>0.2364504199497262</v>
       </c>
       <c r="N8">
-        <v>2.108455662085351</v>
+        <v>1.034975352686907</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6508995031773566</v>
+        <v>1.34125861694298</v>
       </c>
       <c r="C9">
-        <v>0.1218960973054948</v>
+        <v>0.1485437145786506</v>
       </c>
       <c r="D9">
-        <v>0.05541199685193732</v>
+        <v>0.0647454780363077</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.162531743675686</v>
+        <v>0.8480196407745098</v>
       </c>
       <c r="G9">
-        <v>1.025447198962567</v>
+        <v>0.7444812325460646</v>
       </c>
       <c r="H9">
-        <v>1.0287128801763</v>
+        <v>0.5135070481452573</v>
       </c>
       <c r="I9">
-        <v>1.045014041999913</v>
+        <v>0.5571883196140561</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4342906256321442</v>
+        <v>1.24846568810193</v>
       </c>
       <c r="L9">
-        <v>0.2966511855519656</v>
+        <v>0.2622578748436126</v>
       </c>
       <c r="M9">
-        <v>0.2089085003230835</v>
+        <v>0.312229121734326</v>
       </c>
       <c r="N9">
-        <v>2.063862604341644</v>
+        <v>0.9300042674095366</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7195657528351376</v>
+        <v>1.597714285518492</v>
       </c>
       <c r="C10">
-        <v>0.1276855559148373</v>
+        <v>0.1661842931826527</v>
       </c>
       <c r="D10">
-        <v>0.05764405259679251</v>
+        <v>0.07063061045039376</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.17360808165003</v>
+        <v>0.9341670207713122</v>
       </c>
       <c r="G10">
-        <v>1.032918118447895</v>
+        <v>0.8135265642610818</v>
       </c>
       <c r="H10">
-        <v>1.02555749382978</v>
+        <v>0.5349465409911289</v>
       </c>
       <c r="I10">
-        <v>1.04141556215103</v>
+        <v>0.5795364644804479</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5021277950430374</v>
+        <v>1.489295749309775</v>
       </c>
       <c r="L10">
-        <v>0.3041338423120408</v>
+        <v>0.3000555282447834</v>
       </c>
       <c r="M10">
-        <v>0.2230993731717348</v>
+        <v>0.3692241644127279</v>
       </c>
       <c r="N10">
-        <v>2.034154513700287</v>
+        <v>0.8597866170317197</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7510461131251702</v>
+        <v>1.71557178913335</v>
       </c>
       <c r="C11">
-        <v>0.1302870355590073</v>
+        <v>0.1742561131215723</v>
       </c>
       <c r="D11">
-        <v>0.05864704441080448</v>
+        <v>0.07329807859044024</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.179292211448399</v>
+        <v>0.9753554156522455</v>
       </c>
       <c r="G11">
-        <v>1.036917382022139</v>
+        <v>0.8469028688751052</v>
       </c>
       <c r="H11">
-        <v>1.024558291377105</v>
+        <v>0.5457756284831135</v>
       </c>
       <c r="I11">
-        <v>1.040267001787157</v>
+        <v>0.5910019662230681</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5330705122367476</v>
+        <v>1.599829411781513</v>
       </c>
       <c r="L11">
-        <v>0.3076861934732023</v>
+        <v>0.3176787875104878</v>
       </c>
       <c r="M11">
-        <v>0.229652678132453</v>
+        <v>0.3955148215314139</v>
       </c>
       <c r="N11">
-        <v>2.0213024620918</v>
+        <v>0.8294706966784275</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.763001586552349</v>
+        <v>1.760399029683015</v>
       </c>
       <c r="C12">
-        <v>0.1312675371417384</v>
+        <v>0.1773216214657225</v>
       </c>
       <c r="D12">
-        <v>0.0590250602820106</v>
+        <v>0.07430696346022359</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.181537455098663</v>
+        <v>0.9912658404128649</v>
       </c>
       <c r="G12">
-        <v>1.038518255956774</v>
+        <v>0.859850165263623</v>
       </c>
       <c r="H12">
-        <v>1.024242577201065</v>
+        <v>0.5500426395249463</v>
       </c>
       <c r="I12">
-        <v>1.03990228011132</v>
+        <v>0.5955446612373763</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5447994512236392</v>
+        <v>1.641851031348097</v>
       </c>
       <c r="L12">
-        <v>0.3090526727315819</v>
+        <v>0.3244200331096749</v>
       </c>
       <c r="M12">
-        <v>0.232148230330111</v>
+        <v>0.4055293179354038</v>
       </c>
       <c r="N12">
-        <v>2.01653098208196</v>
+        <v>0.8182365112002365</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7604252331250052</v>
+        <v>1.750735487816655</v>
       </c>
       <c r="C13">
-        <v>0.1310565740935914</v>
+        <v>0.1766609784471882</v>
       </c>
       <c r="D13">
-        <v>0.05894372788672086</v>
+        <v>0.07408973380972128</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.181049775419652</v>
+        <v>0.987824882564226</v>
       </c>
       <c r="G13">
-        <v>1.038169633749632</v>
+        <v>0.8570475896296443</v>
       </c>
       <c r="H13">
-        <v>1.024307785975125</v>
+        <v>0.5491160746951209</v>
       </c>
       <c r="I13">
-        <v>1.039977706996694</v>
+        <v>0.594557136739553</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5422729041460173</v>
+        <v>1.632793184209504</v>
       </c>
       <c r="L13">
-        <v>0.308757431556316</v>
+        <v>0.3229650738088168</v>
       </c>
       <c r="M13">
-        <v>0.2316101494325764</v>
+        <v>0.4033697925751767</v>
       </c>
       <c r="N13">
-        <v>2.017554365395057</v>
+        <v>0.8206448630092247</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7520290076971605</v>
+        <v>1.719255649553446</v>
       </c>
       <c r="C14">
-        <v>0.1303677946271904</v>
+        <v>0.1745081234503658</v>
       </c>
       <c r="D14">
-        <v>0.05867818007186543</v>
+        <v>0.07338110374062978</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.179475069563381</v>
+        <v>0.9766579431810527</v>
       </c>
       <c r="G14">
-        <v>1.037047354168664</v>
+        <v>0.8479617166566413</v>
       </c>
       <c r="H14">
-        <v>1.024531061897235</v>
+        <v>0.5461232766648578</v>
       </c>
       <c r="I14">
-        <v>1.040235588845647</v>
+        <v>0.5913715843200222</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5340352286622476</v>
+        <v>1.603283105457621</v>
       </c>
       <c r="L14">
-        <v>0.3077981884225949</v>
+        <v>0.3182320010197515</v>
       </c>
       <c r="M14">
-        <v>0.2298577095885364</v>
+        <v>0.3963375026063574</v>
       </c>
       <c r="N14">
-        <v>2.020907998911802</v>
+        <v>0.8285414559638333</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7468905608612602</v>
+        <v>1.699999801904681</v>
       </c>
       <c r="C15">
-        <v>0.12994529548223</v>
+        <v>0.1731906608505938</v>
       </c>
       <c r="D15">
-        <v>0.05851529011613366</v>
+        <v>0.0729468927538619</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.178522599545971</v>
+        <v>0.9698594641862428</v>
       </c>
       <c r="G15">
-        <v>1.036371184255799</v>
+        <v>0.8424373117714055</v>
       </c>
       <c r="H15">
-        <v>1.024675983451232</v>
+        <v>0.5443121114527827</v>
       </c>
       <c r="I15">
-        <v>1.040402692199024</v>
+        <v>0.5894469493057173</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.528990914770759</v>
+        <v>1.585229556281888</v>
       </c>
       <c r="L15">
-        <v>0.3072133937429982</v>
+        <v>0.3153418597903936</v>
       </c>
       <c r="M15">
-        <v>0.2287861041414914</v>
+        <v>0.3920378813743923</v>
       </c>
       <c r="N15">
-        <v>2.022974611084098</v>
+        <v>0.8334107257134029</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.717513298733536</v>
+        <v>1.59003818516382</v>
       </c>
       <c r="C16">
-        <v>0.1275148960476145</v>
+        <v>0.1656579044560686</v>
       </c>
       <c r="D16">
-        <v>0.05757825429988372</v>
+        <v>0.07045610388357204</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.17324959611544</v>
+        <v>0.9315176560400857</v>
       </c>
       <c r="G16">
-        <v>1.032668849933472</v>
+        <v>0.8113870696842866</v>
       </c>
       <c r="H16">
-        <v>1.025631566114953</v>
+        <v>0.5342614551121727</v>
       </c>
       <c r="I16">
-        <v>1.041500449618709</v>
+        <v>0.5788144953799659</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.500107259481581</v>
+        <v>1.482093835539843</v>
       </c>
       <c r="L16">
-        <v>0.3039046693922387</v>
+        <v>0.2989129429033284</v>
       </c>
       <c r="M16">
-        <v>0.2226730582809822</v>
+        <v>0.3675138682529067</v>
       </c>
       <c r="N16">
-        <v>2.03500775908169</v>
+        <v>0.8618015606204423</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6995533680427002</v>
+        <v>1.522903722332842</v>
       </c>
       <c r="C17">
-        <v>0.126015687249847</v>
+        <v>0.1610503019147842</v>
       </c>
       <c r="D17">
-        <v>0.05700023135200638</v>
+        <v>0.06892571479281173</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.170180074533036</v>
+        <v>0.9085260593774507</v>
       </c>
       <c r="G17">
-        <v>1.030551484720149</v>
+        <v>0.7928601878322468</v>
       </c>
       <c r="H17">
-        <v>1.026329461228897</v>
+        <v>0.528379263838147</v>
       </c>
       <c r="I17">
-        <v>1.042298967126072</v>
+        <v>0.5726343267157148</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4824091332403952</v>
+        <v>1.419090742593653</v>
       </c>
       <c r="L17">
-        <v>0.3019128493705523</v>
+        <v>0.2889483436806302</v>
       </c>
       <c r="M17">
-        <v>0.218947877309887</v>
+        <v>0.352566749005824</v>
       </c>
       <c r="N17">
-        <v>2.042559390280417</v>
+        <v>0.8796431950934078</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6892462630169405</v>
+        <v>1.484400561718246</v>
       </c>
       <c r="C18">
-        <v>0.1251503533735558</v>
+        <v>0.1584044202503208</v>
       </c>
       <c r="D18">
-        <v>0.05666660332138207</v>
+        <v>0.06804455079569038</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.168475321201399</v>
+        <v>0.8954884567245074</v>
       </c>
       <c r="G18">
-        <v>1.02939016991688</v>
+        <v>0.7823875451293674</v>
       </c>
       <c r="H18">
-        <v>1.026771932819983</v>
+        <v>0.5250965371173066</v>
       </c>
       <c r="I18">
-        <v>1.042804225480431</v>
+        <v>0.5692010409152246</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4722374968988277</v>
+        <v>1.382943613043011</v>
       </c>
       <c r="L18">
-        <v>0.3007811842632009</v>
+        <v>0.2832569566425036</v>
       </c>
       <c r="M18">
-        <v>0.216814464058892</v>
+        <v>0.3440033398988547</v>
       </c>
       <c r="N18">
-        <v>2.04696522374735</v>
+        <v>0.8900575562314224</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6857604152193062</v>
+        <v>1.471382341062224</v>
       </c>
       <c r="C19">
-        <v>0.1248568458879049</v>
+        <v>0.1575092451684839</v>
       </c>
       <c r="D19">
-        <v>0.05655344304992838</v>
+        <v>0.06774604007832608</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.167908556461384</v>
+        <v>0.8911054353317525</v>
       </c>
       <c r="G19">
-        <v>1.029006677278161</v>
+        <v>0.7788724621155723</v>
       </c>
       <c r="H19">
-        <v>1.026928800251156</v>
+        <v>0.5240019952464081</v>
       </c>
       <c r="I19">
-        <v>1.042983193636445</v>
+        <v>0.5680590230393605</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4687949163706548</v>
+        <v>1.370719667147199</v>
       </c>
       <c r="L19">
-        <v>0.3004004245004523</v>
+        <v>0.2813366418982639</v>
       </c>
       <c r="M19">
-        <v>0.2160937124558444</v>
+        <v>0.3411095263312589</v>
       </c>
       <c r="N19">
-        <v>2.048467667139796</v>
+        <v>0.8936094929389888</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7014628594582746</v>
+        <v>1.530038654489516</v>
       </c>
       <c r="C20">
-        <v>0.1261755940055451</v>
+        <v>0.1615403303339775</v>
       </c>
       <c r="D20">
-        <v>0.05706188351326347</v>
+        <v>0.06908872184588688</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.170500542700992</v>
+        <v>0.9109540657407109</v>
       </c>
       <c r="G20">
-        <v>1.030771029995776</v>
+        <v>0.7948132324467707</v>
       </c>
       <c r="H20">
-        <v>1.026250919920386</v>
+        <v>0.528994945426092</v>
       </c>
       <c r="I20">
-        <v>1.042209205760834</v>
+        <v>0.5732795543466978</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4842923184021402</v>
+        <v>1.42578798516675</v>
       </c>
       <c r="L20">
-        <v>0.3021234359170109</v>
+        <v>0.2900049115077366</v>
       </c>
       <c r="M20">
-        <v>0.2193434765148368</v>
+        <v>0.3541543534823788</v>
       </c>
       <c r="N20">
-        <v>2.041749054284953</v>
+        <v>0.8777280740607054</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7544942491412314</v>
+        <v>1.728496478401667</v>
       </c>
       <c r="C21">
-        <v>0.1305702312661055</v>
+        <v>0.1751402101747175</v>
       </c>
       <c r="D21">
-        <v>0.05875622674640368</v>
+        <v>0.07358927746911803</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.179935080852459</v>
+        <v>0.9799292272144982</v>
       </c>
       <c r="G21">
-        <v>1.037374648471058</v>
+        <v>0.850621874616607</v>
       </c>
       <c r="H21">
-        <v>1.024463780211548</v>
+        <v>0.5469977253406881</v>
       </c>
       <c r="I21">
-        <v>1.040157937278572</v>
+        <v>0.5923016865418589</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5364545216528427</v>
+        <v>1.611946253254132</v>
       </c>
       <c r="L21">
-        <v>0.3080793643538158</v>
+        <v>0.3196203317567523</v>
       </c>
       <c r="M21">
-        <v>0.2303720656885986</v>
+        <v>0.3984014063650392</v>
       </c>
       <c r="N21">
-        <v>2.019920368083476</v>
+        <v>0.8262152650177441</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7893544432070883</v>
+        <v>1.859362530037913</v>
       </c>
       <c r="C22">
-        <v>0.1334154403783856</v>
+        <v>0.1840814290255963</v>
       </c>
       <c r="D22">
-        <v>0.0598531063485197</v>
+        <v>0.07652358465430353</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.186641917837093</v>
+        <v>1.02684782117565</v>
       </c>
       <c r="G22">
-        <v>1.042194358306546</v>
+        <v>0.8889069679776043</v>
       </c>
       <c r="H22">
-        <v>1.023660995165713</v>
+        <v>0.5597387174449011</v>
       </c>
       <c r="I22">
-        <v>1.039226562518493</v>
+        <v>0.6059124102945077</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.570612999963771</v>
+        <v>1.734585299878432</v>
       </c>
       <c r="L22">
-        <v>0.3120959187369579</v>
+        <v>0.339373435619251</v>
       </c>
       <c r="M22">
-        <v>0.2376611936446125</v>
+        <v>0.4276655088291008</v>
       </c>
       <c r="N22">
-        <v>2.006209653227288</v>
+        <v>0.7939875307927906</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7707306665348881</v>
+        <v>1.789401602508832</v>
       </c>
       <c r="C23">
-        <v>0.1318993623859228</v>
+        <v>0.1793037406923759</v>
       </c>
       <c r="D23">
-        <v>0.05926864413976318</v>
+        <v>0.07495807689322476</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.183012876782357</v>
+        <v>1.001629175790541</v>
       </c>
       <c r="G23">
-        <v>1.039575865500851</v>
+        <v>0.8682988544907033</v>
       </c>
       <c r="H23">
-        <v>1.024056060102339</v>
+        <v>0.5528453492836434</v>
       </c>
       <c r="I23">
-        <v>1.039686214734417</v>
+        <v>0.5985353184314306</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5523759260026395</v>
+        <v>1.669032949997217</v>
       </c>
       <c r="L23">
-        <v>0.309940883050885</v>
+        <v>0.32879233833863</v>
       </c>
       <c r="M23">
-        <v>0.2337634444778161</v>
+        <v>0.4120127473650612</v>
       </c>
       <c r="N23">
-        <v>2.013476457792699</v>
+        <v>0.8110522514130452</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7005995213541496</v>
+        <v>1.52681266283625</v>
       </c>
       <c r="C24">
-        <v>0.1261033108123257</v>
+        <v>0.1613187790177761</v>
       </c>
       <c r="D24">
-        <v>0.05703401466588076</v>
+        <v>0.06901503049051882</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.170355472281116</v>
+        <v>0.9098558035449287</v>
       </c>
       <c r="G24">
-        <v>1.030671599184828</v>
+        <v>0.7939297062472406</v>
       </c>
       <c r="H24">
-        <v>1.026286299970465</v>
+        <v>0.5287162882053735</v>
       </c>
       <c r="I24">
-        <v>1.042249643022593</v>
+        <v>0.5729874749171557</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4834409202342442</v>
+        <v>1.422759932525423</v>
       </c>
       <c r="L24">
-        <v>0.3020281878125246</v>
+        <v>0.2895271211699679</v>
       </c>
       <c r="M24">
-        <v>0.2191646004309433</v>
+        <v>0.3534365048908299</v>
       </c>
       <c r="N24">
-        <v>2.042115206896643</v>
+        <v>0.8785934122506553</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.625831738662697</v>
+        <v>1.247716184838794</v>
       </c>
       <c r="C25">
-        <v>0.1197355004622835</v>
+        <v>0.142075926818805</v>
       </c>
       <c r="D25">
-        <v>0.05457913552403681</v>
+        <v>0.06256855102398617</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.159025183985577</v>
+        <v>0.8179066576163905</v>
       </c>
       <c r="G25">
-        <v>1.023228136179895</v>
+        <v>0.720639144672063</v>
       </c>
       <c r="H25">
-        <v>1.030262049973004</v>
+        <v>0.5064938883544983</v>
       </c>
       <c r="I25">
-        <v>1.046772382684658</v>
+        <v>0.55002189128016</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4093849714951716</v>
+        <v>1.160494223657793</v>
       </c>
       <c r="L25">
-        <v>0.2940276623286024</v>
+        <v>0.2486809775540308</v>
       </c>
       <c r="M25">
-        <v>0.2037699531850805</v>
+        <v>0.2915211714033035</v>
       </c>
       <c r="N25">
-        <v>2.075389720338695</v>
+        <v>0.9572303959884856</v>
       </c>
       <c r="O25">
         <v>0</v>
